--- a/ac sweep.xlsx
+++ b/ac sweep.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ugsamba\fdn1g15\D3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\D3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
                   <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8666666666666671</c:v>
+                  <c:v>5.7333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5.6</c:v>
@@ -706,46 +706,46 @@
                   <c:v>5.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6</c:v>
+                  <c:v>5.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.8666666666666663</c:v>
+                  <c:v>5.7333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7333333333333334</c:v>
+                  <c:v>5.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7333333333333334</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4666666666666677</c:v>
+                  <c:v>5.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0666666666666673</c:v>
+                  <c:v>5.1333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.9333333333333336</c:v>
+                  <c:v>4.8666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.8666666666666671</c:v>
+                  <c:v>4.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.2666666666666666</c:v>
+                  <c:v>2.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5333333333333337</c:v>
+                  <c:v>1.1333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0666666666666667</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.8</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.53333333333333333</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2499,8 +2499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" activeCellId="1" sqref="B3:B23 D3:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,7 +2578,7 @@
         <v>0.2</v>
       </c>
       <c r="D7">
-        <f>C7/F7</f>
+        <f t="shared" ref="D7:D18" si="0">C7/F7</f>
         <v>0.66666666666666674</v>
       </c>
       <c r="F7">
@@ -2593,7 +2593,7 @@
         <v>0.52</v>
       </c>
       <c r="D8">
-        <f>C8/F8</f>
+        <f t="shared" si="0"/>
         <v>1.7333333333333334</v>
       </c>
       <c r="F8">
@@ -2608,7 +2608,7 @@
         <v>1.08</v>
       </c>
       <c r="D9">
-        <f>C9/F9</f>
+        <f t="shared" si="0"/>
         <v>3.6000000000000005</v>
       </c>
       <c r="F9">
@@ -2623,7 +2623,7 @@
         <v>1.56</v>
       </c>
       <c r="D10">
-        <f>C10/F10</f>
+        <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
       <c r="F10">
@@ -2635,11 +2635,11 @@
         <v>1000</v>
       </c>
       <c r="C11">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="D11">
-        <f>C11/F11</f>
-        <v>5.8666666666666671</v>
+        <f t="shared" si="0"/>
+        <v>5.7333333333333334</v>
       </c>
       <c r="F11">
         <v>0.3</v>
@@ -2653,7 +2653,7 @@
         <v>1.68</v>
       </c>
       <c r="D12">
-        <f>C12/F12</f>
+        <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
       <c r="F12">
@@ -2668,7 +2668,7 @@
         <v>1.56</v>
       </c>
       <c r="D13">
-        <f>C13/F13</f>
+        <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
       <c r="F13">
@@ -2683,7 +2683,7 @@
         <v>1.52</v>
       </c>
       <c r="D14">
-        <f>C14/F14</f>
+        <f t="shared" si="0"/>
         <v>5.0666666666666673</v>
       </c>
       <c r="F14">
@@ -2698,7 +2698,7 @@
         <v>1.52</v>
       </c>
       <c r="D15">
-        <f>C15/F15</f>
+        <f t="shared" si="0"/>
         <v>5.0666666666666673</v>
       </c>
       <c r="F15">
@@ -2713,7 +2713,7 @@
         <v>1.48</v>
       </c>
       <c r="D16">
-        <f>C16/F16</f>
+        <f t="shared" si="0"/>
         <v>4.9333333333333336</v>
       </c>
       <c r="F16">
@@ -2728,7 +2728,7 @@
         <v>1.44</v>
       </c>
       <c r="D17">
-        <f>C17/F17</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="F17">
@@ -2743,7 +2743,7 @@
         <v>1.44</v>
       </c>
       <c r="D18">
-        <f>C18/F18</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="F18">
@@ -2758,7 +2758,7 @@
         <v>1.24</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D23" si="0">C19/F19</f>
+        <f t="shared" ref="D19:D23" si="1">C19/F19</f>
         <v>4.1333333333333337</v>
       </c>
       <c r="F19">
@@ -2773,7 +2773,7 @@
         <v>0.92</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0666666666666669</v>
       </c>
       <c r="F20">
@@ -2788,7 +2788,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8666666666666669</v>
       </c>
       <c r="F21">
@@ -2803,7 +2803,7 @@
         <v>0.4</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3333333333333335</v>
       </c>
       <c r="F22">
@@ -2818,7 +2818,7 @@
         <v>0.2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="F23">
@@ -2835,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2959,11 +2959,11 @@
         <v>500</v>
       </c>
       <c r="C10">
-        <v>2.2799999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F10">
         <v>0.3</v>
@@ -2974,11 +2974,11 @@
         <v>1000</v>
       </c>
       <c r="C11">
-        <v>2.36</v>
+        <v>1.72</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>7.8666666666666663</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="F11">
         <v>0.3</v>
@@ -2989,11 +2989,11 @@
         <v>5000</v>
       </c>
       <c r="C12">
-        <v>2.3199999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>7.7333333333333334</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F12">
         <v>0.3</v>
@@ -3004,11 +3004,11 @@
         <v>10000</v>
       </c>
       <c r="C13">
-        <v>2.3199999999999998</v>
+        <v>1.68</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>7.7333333333333334</v>
+        <v>5.6</v>
       </c>
       <c r="F13">
         <v>0.3</v>
@@ -3019,11 +3019,11 @@
         <v>20000</v>
       </c>
       <c r="C14">
-        <v>2.2400000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>7.4666666666666677</v>
+        <v>5.3333333333333339</v>
       </c>
       <c r="F14">
         <v>0.3</v>
@@ -3034,11 +3034,11 @@
         <v>50000</v>
       </c>
       <c r="C15">
-        <v>2.12</v>
+        <v>1.54</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>7.0666666666666673</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="F15">
         <v>0.3</v>
@@ -3049,11 +3049,11 @@
         <v>100000</v>
       </c>
       <c r="C16">
-        <v>2.08</v>
+        <v>1.46</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>6.9333333333333336</v>
+        <v>4.8666666666666671</v>
       </c>
       <c r="F16">
         <v>0.3</v>
@@ -3064,11 +3064,11 @@
         <v>200000</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>6.666666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="F17">
         <v>0.3</v>
@@ -3079,11 +3079,11 @@
         <v>500000</v>
       </c>
       <c r="C18">
-        <v>1.76</v>
+        <v>1.3</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>5.8666666666666671</v>
+        <v>4.3333333333333339</v>
       </c>
       <c r="F18">
         <v>0.3</v>
@@ -3094,11 +3094,11 @@
         <v>1000000</v>
       </c>
       <c r="C19">
-        <v>1.28</v>
+        <v>0.7</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>4.2666666666666666</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="F19">
         <v>0.3</v>
@@ -3109,11 +3109,11 @@
         <v>2000000</v>
       </c>
       <c r="C20">
-        <v>0.76</v>
+        <v>0.34</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>2.5333333333333337</v>
+        <v>1.1333333333333335</v>
       </c>
       <c r="F20">
         <v>0.3</v>
@@ -3124,11 +3124,11 @@
         <v>5000000</v>
       </c>
       <c r="C21">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>1.0666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="F21">
         <v>0.3</v>
@@ -3139,11 +3139,11 @@
         <v>10000000</v>
       </c>
       <c r="C22">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F22">
         <v>0.3</v>
@@ -3154,11 +3154,11 @@
         <v>20000000</v>
       </c>
       <c r="C23">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="F23">
         <v>0.3</v>
